--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2949094.351954474</v>
+        <v>3030773.558687862</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2345916.13826195</v>
+        <v>2346514.7357022</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8815371.561698789</v>
+        <v>8815350.378420714</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,19 +670,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>228.0767087417152</v>
       </c>
       <c r="G2" t="n">
-        <v>15.21022140383137</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>206.909162189371</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.097100052852173</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="X2" t="n">
-        <v>262.0130880685285</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
     </row>
     <row r="3">
@@ -735,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>30.70639461389221</v>
+        <v>84.33519610066131</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -801,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -820,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>13.40110646040564</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>71.30468686766744</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>372.0396308464222</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>387.3948401441548</v>
+        <v>207.5105897110071</v>
       </c>
       <c r="G5" t="n">
-        <v>277.825634091049</v>
+        <v>372.0396308464222</v>
       </c>
       <c r="H5" t="n">
-        <v>334.0905432484386</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>190.2072075264479</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>116.8439548922222</v>
+        <v>120.1819171385216</v>
       </c>
       <c r="S5" t="n">
-        <v>197.0397157291234</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>372.0396308464222</v>
       </c>
     </row>
     <row r="6">
@@ -972,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.0622202054666</v>
+        <v>137.0906518175546</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>79.71162794663287</v>
+        <v>80.69052336281881</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>84.45800155129679</v>
       </c>
       <c r="S6" t="n">
-        <v>166.4582034896018</v>
+        <v>166.9863082141302</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9247462029711</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1038,10 +1040,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>31.03620445530485</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>21.54339324200352</v>
       </c>
     </row>
     <row r="7">
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>30.44838804308429</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1111,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>83.55348041321757</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>304.0710731174375</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1150,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1187,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>124.05244564678</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>153.4054252103178</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>15.51599806121328</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1382,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>18.59555086114563</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>20.79557837475532</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1543,10 +1545,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1661,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1777,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1819,16 +1821,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>203.8435192151918</v>
+        <v>195.7632657493762</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634821</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1897,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T18" t="n">
         <v>192.9654699154601</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>135.9622846212864</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2053,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>190.7955476484028</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2093,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648052002</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2175,10 +2177,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H21" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014431</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2254,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>106.5715106210552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>224.8952567231552</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>115.526976800218</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>169.1477376595848</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2609,7 +2611,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.237938656055</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2728,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>101.0041688483418</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -2770,13 +2772,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>57.56452900498805</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634821</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2807,7 +2809,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274074</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2959,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>67.08991894886735</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>88.60528334072244</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3046,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113172</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
         <v>81.77913505274074</v>
@@ -3083,7 +3085,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>88.99177052521483</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3235,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3326,13 +3328,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>10.34713777957344</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>118.4898845065123</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3503,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3512,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>101.1426547140132</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3797,7 +3799,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>91.99607932996327</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>115.526976800218</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3983,7 +3985,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4031,7 +4033,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4141,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>41.72674684450156</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>149.6782495116976</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>522.4074064933379</v>
+        <v>267.7881344992538</v>
       </c>
       <c r="C2" t="n">
-        <v>256.5063620977151</v>
+        <v>267.7881344992538</v>
       </c>
       <c r="D2" t="n">
-        <v>256.5063620977151</v>
+        <v>267.7881344992538</v>
       </c>
       <c r="E2" t="n">
-        <v>256.5063620977151</v>
+        <v>267.7881344992538</v>
       </c>
       <c r="F2" t="n">
-        <v>249.5608613485117</v>
+        <v>37.40762061873335</v>
       </c>
       <c r="G2" t="n">
-        <v>234.1970013446416</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H2" t="n">
-        <v>234.1970013446416</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I2" t="n">
-        <v>25.19784761800421</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J2" t="n">
-        <v>21.05936271613333</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K2" t="n">
-        <v>135.7250809573682</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L2" t="n">
-        <v>330.254671414236</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M2" t="n">
-        <v>563.3128681098021</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N2" t="n">
-        <v>785.5101925369328</v>
+        <v>817.0829279823541</v>
       </c>
       <c r="O2" t="n">
-        <v>950.1371873885138</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P2" t="n">
-        <v>1052.968135806666</v>
+        <v>1099.465256491931</v>
       </c>
       <c r="Q2" t="n">
-        <v>1052.968135806666</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>1052.968135806666</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S2" t="n">
-        <v>1052.968135806666</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T2" t="n">
-        <v>1052.968135806666</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U2" t="n">
-        <v>1052.968135806666</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V2" t="n">
-        <v>1052.968135806666</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W2" t="n">
-        <v>1052.968135806666</v>
+        <v>825.6800813726991</v>
       </c>
       <c r="X2" t="n">
-        <v>788.3084508889608</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="Y2" t="n">
-        <v>788.3084508889608</v>
+        <v>267.7881344992538</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>470.7341720494293</v>
+        <v>728.5592175838208</v>
       </c>
       <c r="C3" t="n">
-        <v>470.7341720494293</v>
+        <v>554.1061883026938</v>
       </c>
       <c r="D3" t="n">
-        <v>470.7341720494293</v>
+        <v>405.1717786414425</v>
       </c>
       <c r="E3" t="n">
-        <v>311.4967170439738</v>
+        <v>245.934323635987</v>
       </c>
       <c r="F3" t="n">
-        <v>164.9621590708588</v>
+        <v>245.934323635987</v>
       </c>
       <c r="G3" t="n">
-        <v>164.9621590708588</v>
+        <v>107.2795878645332</v>
       </c>
       <c r="H3" t="n">
-        <v>52.07592293218607</v>
+        <v>107.2795878645332</v>
       </c>
       <c r="I3" t="n">
-        <v>21.05936271613333</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J3" t="n">
-        <v>24.95018035683209</v>
+        <v>28.39914141318534</v>
       </c>
       <c r="K3" t="n">
-        <v>158.2210505399122</v>
+        <v>28.39914141318534</v>
       </c>
       <c r="L3" t="n">
-        <v>398.8245784347747</v>
+        <v>94.45522409818579</v>
       </c>
       <c r="M3" t="n">
-        <v>456.2953932224767</v>
+        <v>367.8501726635176</v>
       </c>
       <c r="N3" t="n">
-        <v>716.9050068346266</v>
+        <v>641.2451212288495</v>
       </c>
       <c r="O3" t="n">
-        <v>977.3180709271187</v>
+        <v>907.7419348121333</v>
       </c>
       <c r="P3" t="n">
-        <v>977.3180709271187</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q3" t="n">
-        <v>1052.968135806666</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1052.968135806666</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S3" t="n">
-        <v>880.4795283993074</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T3" t="n">
-        <v>678.4944708143832</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U3" t="n">
-        <v>678.4944708143832</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V3" t="n">
-        <v>678.4944708143832</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W3" t="n">
-        <v>678.4944708143832</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X3" t="n">
-        <v>678.4944708143832</v>
+        <v>896.7745546038889</v>
       </c>
       <c r="Y3" t="n">
-        <v>470.7341720494293</v>
+        <v>896.7745546038889</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>182.5089274706534</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="C4" t="n">
-        <v>182.5089274706534</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="D4" t="n">
-        <v>168.9724562985265</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="E4" t="n">
-        <v>21.05936271613333</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="F4" t="n">
-        <v>21.05936271613333</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="G4" t="n">
-        <v>21.05936271613333</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="H4" t="n">
-        <v>21.05936271613333</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="I4" t="n">
-        <v>21.05936271613333</v>
+        <v>126.9677807731686</v>
       </c>
       <c r="J4" t="n">
-        <v>21.05936271613333</v>
+        <v>37.1756025565036</v>
       </c>
       <c r="K4" t="n">
-        <v>21.05936271613333</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L4" t="n">
-        <v>54.48163939360295</v>
+        <v>58.70189726492713</v>
       </c>
       <c r="M4" t="n">
-        <v>100.1098670955239</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N4" t="n">
-        <v>150.0877739486497</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>180.2341645716483</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P4" t="n">
-        <v>182.5089274706534</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q4" t="n">
-        <v>182.5089274706534</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R4" t="n">
-        <v>182.5089274706534</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S4" t="n">
-        <v>182.5089274706534</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T4" t="n">
-        <v>182.5089274706534</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U4" t="n">
-        <v>182.5089274706534</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="V4" t="n">
-        <v>182.5089274706534</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="W4" t="n">
-        <v>182.5089274706534</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="X4" t="n">
-        <v>182.5089274706534</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Y4" t="n">
-        <v>182.5089274706534</v>
+        <v>198.9927170031358</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1232.525147827785</v>
+        <v>615.1674336570363</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.525147827785</v>
+        <v>615.1674336570363</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.525147827785</v>
+        <v>615.1674336570363</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.525147827785</v>
+        <v>615.1674336570363</v>
       </c>
       <c r="F5" t="n">
-        <v>841.2172284902551</v>
+        <v>405.5607773832918</v>
       </c>
       <c r="G5" t="n">
-        <v>560.5852748629329</v>
+        <v>29.76317046771378</v>
       </c>
       <c r="H5" t="n">
-        <v>223.1200796624899</v>
+        <v>29.76317046771378</v>
       </c>
       <c r="I5" t="n">
-        <v>30.99158721153238</v>
+        <v>29.76317046771378</v>
       </c>
       <c r="J5" t="n">
-        <v>63.33729848931816</v>
+        <v>57.64391735380408</v>
       </c>
       <c r="K5" t="n">
-        <v>232.5599391817367</v>
+        <v>220.174733845688</v>
       </c>
       <c r="L5" t="n">
-        <v>494.7722161923828</v>
+        <v>474.0852112039977</v>
       </c>
       <c r="M5" t="n">
-        <v>803.1404427365692</v>
+        <v>773.2160860494162</v>
       </c>
       <c r="N5" t="n">
-        <v>1101.866392029483</v>
+        <v>1062.555213635722</v>
       </c>
       <c r="O5" t="n">
-        <v>1338.757197245513</v>
+        <v>1290.582309293129</v>
       </c>
       <c r="P5" t="n">
-        <v>1503.263635927383</v>
+        <v>1447.523776935881</v>
       </c>
       <c r="Q5" t="n">
-        <v>1549.579360576619</v>
+        <v>1488.158523385689</v>
       </c>
       <c r="R5" t="n">
-        <v>1431.555163715789</v>
+        <v>1366.762647488192</v>
       </c>
       <c r="S5" t="n">
-        <v>1232.525147827785</v>
+        <v>1366.762647488192</v>
       </c>
       <c r="T5" t="n">
-        <v>1232.525147827785</v>
+        <v>1366.762647488192</v>
       </c>
       <c r="U5" t="n">
-        <v>1232.525147827785</v>
+        <v>1366.762647488192</v>
       </c>
       <c r="V5" t="n">
-        <v>1232.525147827785</v>
+        <v>1366.762647488192</v>
       </c>
       <c r="W5" t="n">
-        <v>1232.525147827785</v>
+        <v>1366.762647488192</v>
       </c>
       <c r="X5" t="n">
-        <v>1232.525147827785</v>
+        <v>1366.762647488192</v>
       </c>
       <c r="Y5" t="n">
-        <v>1232.525147827785</v>
+        <v>990.9650405726143</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>719.8770671089444</v>
+        <v>729.9691977580916</v>
       </c>
       <c r="C6" t="n">
-        <v>545.4240378278174</v>
+        <v>555.5161684769646</v>
       </c>
       <c r="D6" t="n">
-        <v>396.4896281665661</v>
+        <v>555.5161684769646</v>
       </c>
       <c r="E6" t="n">
-        <v>396.4896281665661</v>
+        <v>396.278713471509</v>
       </c>
       <c r="F6" t="n">
-        <v>249.9550701934511</v>
+        <v>249.744155498394</v>
       </c>
       <c r="G6" t="n">
-        <v>111.5083831172222</v>
+        <v>111.2687496220762</v>
       </c>
       <c r="H6" t="n">
-        <v>111.5083831172222</v>
+        <v>111.2687496220762</v>
       </c>
       <c r="I6" t="n">
-        <v>30.99158721153238</v>
+        <v>29.76317046771378</v>
       </c>
       <c r="J6" t="n">
-        <v>56.56309157527268</v>
+        <v>52.67537262782853</v>
       </c>
       <c r="K6" t="n">
-        <v>226.8897086170047</v>
+        <v>218.4568186361414</v>
       </c>
       <c r="L6" t="n">
-        <v>517.3192611265169</v>
+        <v>502.7748277822777</v>
       </c>
       <c r="M6" t="n">
-        <v>900.8401528692302</v>
+        <v>710.1745897964079</v>
       </c>
       <c r="N6" t="n">
-        <v>900.8401528692302</v>
+        <v>1078.493824334366</v>
       </c>
       <c r="O6" t="n">
-        <v>1215.85199197982</v>
+        <v>1386.808705706685</v>
       </c>
       <c r="P6" t="n">
-        <v>1444.63656525803</v>
+        <v>1386.808705706685</v>
       </c>
       <c r="Q6" t="n">
-        <v>1549.579360576619</v>
+        <v>1488.158523385689</v>
       </c>
       <c r="R6" t="n">
-        <v>1549.579360576619</v>
+        <v>1402.847410707611</v>
       </c>
       <c r="S6" t="n">
-        <v>1381.439761092173</v>
+        <v>1234.17437210748</v>
       </c>
       <c r="T6" t="n">
-        <v>1381.439761092173</v>
+        <v>1234.17437210748</v>
       </c>
       <c r="U6" t="n">
-        <v>1381.439761092173</v>
+        <v>1005.967557761044</v>
       </c>
       <c r="V6" t="n">
-        <v>1381.439761092173</v>
+        <v>1005.967557761044</v>
       </c>
       <c r="W6" t="n">
-        <v>1127.202404363971</v>
+        <v>751.7302010328426</v>
       </c>
       <c r="X6" t="n">
-        <v>1095.852702893966</v>
+        <v>751.7302010328426</v>
       </c>
       <c r="Y6" t="n">
-        <v>888.0924041290125</v>
+        <v>729.9691977580916</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30.99158721153238</v>
+        <v>29.76317046771378</v>
       </c>
       <c r="C7" t="n">
-        <v>30.99158721153238</v>
+        <v>29.76317046771378</v>
       </c>
       <c r="D7" t="n">
-        <v>30.99158721153238</v>
+        <v>29.76317046771378</v>
       </c>
       <c r="E7" t="n">
-        <v>30.99158721153238</v>
+        <v>29.76317046771378</v>
       </c>
       <c r="F7" t="n">
-        <v>30.99158721153238</v>
+        <v>29.76317046771378</v>
       </c>
       <c r="G7" t="n">
-        <v>30.99158721153238</v>
+        <v>29.76317046771378</v>
       </c>
       <c r="H7" t="n">
-        <v>30.99158721153238</v>
+        <v>29.76317046771378</v>
       </c>
       <c r="I7" t="n">
-        <v>30.99158721153238</v>
+        <v>29.76317046771378</v>
       </c>
       <c r="J7" t="n">
-        <v>30.99158721153238</v>
+        <v>29.76317046771378</v>
       </c>
       <c r="K7" t="n">
-        <v>36.0699477017704</v>
+        <v>32.09990175888159</v>
       </c>
       <c r="L7" t="n">
-        <v>98.09493531391499</v>
+        <v>90.61654790611271</v>
       </c>
       <c r="M7" t="n">
-        <v>173.8807113004514</v>
+        <v>162.7032697236688</v>
       </c>
       <c r="N7" t="n">
-        <v>253.2990873454191</v>
+        <v>238.5105468400021</v>
       </c>
       <c r="O7" t="n">
-        <v>310.638516345104</v>
+        <v>292.5145415057947</v>
       </c>
       <c r="P7" t="n">
-        <v>336.1816213179085</v>
+        <v>315.2036061918676</v>
       </c>
       <c r="Q7" t="n">
-        <v>336.1816213179085</v>
+        <v>284.4476586736006</v>
       </c>
       <c r="R7" t="n">
-        <v>336.1816213179085</v>
+        <v>284.4476586736006</v>
       </c>
       <c r="S7" t="n">
-        <v>336.1816213179085</v>
+        <v>284.4476586736006</v>
       </c>
       <c r="T7" t="n">
-        <v>336.1816213179085</v>
+        <v>284.4476586736006</v>
       </c>
       <c r="U7" t="n">
-        <v>336.1816213179085</v>
+        <v>284.4476586736006</v>
       </c>
       <c r="V7" t="n">
-        <v>336.1816213179085</v>
+        <v>29.76317046771378</v>
       </c>
       <c r="W7" t="n">
-        <v>336.1816213179085</v>
+        <v>29.76317046771378</v>
       </c>
       <c r="X7" t="n">
-        <v>251.7841663550625</v>
+        <v>29.76317046771378</v>
       </c>
       <c r="Y7" t="n">
-        <v>30.99158721153238</v>
+        <v>29.76317046771378</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1670.695888779115</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C8" t="n">
-        <v>1363.553390680693</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4802,13 +4804,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4835,19 +4837,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843236</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>2057.295728843236</v>
+        <v>2185.752013551832</v>
       </c>
       <c r="X8" t="n">
-        <v>2057.295728843236</v>
+        <v>1812.286255290752</v>
       </c>
       <c r="Y8" t="n">
-        <v>2057.295728843236</v>
+        <v>1422.14692331494</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4896,16 +4898,16 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4920,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>530.8077940618376</v>
+        <v>573.1740092465172</v>
       </c>
       <c r="C10" t="n">
-        <v>530.8077940618376</v>
+        <v>404.2378263186104</v>
       </c>
       <c r="D10" t="n">
-        <v>380.6911546495019</v>
+        <v>404.2378263186104</v>
       </c>
       <c r="E10" t="n">
-        <v>380.6911546495019</v>
+        <v>404.2378263186104</v>
       </c>
       <c r="F10" t="n">
-        <v>380.6911546495019</v>
+        <v>257.3478788207</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4986,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>712.4562588920774</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>712.4562588920774</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>712.4562588920774</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>712.4562588920774</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>712.4562588920774</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>712.4562588920774</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>712.4562588920774</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>712.4562588920774</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5018,19 +5020,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5039,25 +5041,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.627437207831</v>
@@ -5066,19 +5068,19 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5118,25 +5120,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>991.0842369787849</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="C13" t="n">
-        <v>822.148054050878</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D13" t="n">
-        <v>822.148054050878</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684849</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705745</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028587</v>
@@ -5224,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687013</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>1009.867621687013</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W13" t="n">
-        <v>1009.867621687013</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="X13" t="n">
-        <v>1009.867621687013</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="Y13" t="n">
-        <v>1009.867621687013</v>
+        <v>731.3177283550796</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805475</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5291,37 +5293,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>766.3950693506686</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>766.3950693506686</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>766.3950693506686</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>766.3950693506686</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>766.3950693506686</v>
       </c>
     </row>
     <row r="17">
@@ -5504,61 +5506,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>891.4406401619849</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>571.6642370999746</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>402.7280541720677</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>402.7280541720677</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>402.7280541720677</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="V19" t="n">
-        <v>1017.064856369034</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="W19" t="n">
-        <v>727.647686332073</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="X19" t="n">
-        <v>499.6581354340557</v>
+        <v>792.4568162435047</v>
       </c>
       <c r="Y19" t="n">
-        <v>278.8655562905255</v>
+        <v>571.6642370999746</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
         <v>1701.09316900344</v>
@@ -5738,37 +5740,37 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028589</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823792</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514098</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515101</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643329</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.627437207831</v>
@@ -5777,22 +5779,22 @@
         <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5814,40 +5816,40 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047444</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028589</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256439</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277043</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341692</v>
+        <v>891.4406401619849</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653855</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918006</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136704</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918914</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3459.155393916674</v>
+        <v>355.283090438661</v>
       </c>
       <c r="C22" t="n">
-        <v>3459.155393916674</v>
+        <v>355.283090438661</v>
       </c>
       <c r="D22" t="n">
-        <v>3459.155393916674</v>
+        <v>355.283090438661</v>
       </c>
       <c r="E22" t="n">
-        <v>3459.155393916674</v>
+        <v>355.283090438661</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916674</v>
+        <v>355.283090438661</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916674</v>
+        <v>355.283090438661</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916674</v>
+        <v>204.8650819866043</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916674</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436455</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>4860.854573014294</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U22" t="n">
-        <v>4633.687647031309</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="V22" t="n">
-        <v>4379.003158825422</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="W22" t="n">
-        <v>4089.585988788462</v>
+        <v>985.7136853104482</v>
       </c>
       <c r="X22" t="n">
-        <v>3861.596437890444</v>
+        <v>757.7241344124309</v>
       </c>
       <c r="Y22" t="n">
-        <v>3640.803858746914</v>
+        <v>536.9315552689008</v>
       </c>
     </row>
     <row r="23">
@@ -5978,7 +5980,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5987,10 +5989,10 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6002,7 +6004,7 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899128</v>
@@ -6011,7 +6013,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6066,25 +6068,25 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K24" t="n">
-        <v>378.1030765138935</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L24" t="n">
-        <v>624.8682044203576</v>
+        <v>534.5429807341678</v>
       </c>
       <c r="M24" t="n">
-        <v>932.1883377003194</v>
+        <v>841.8631140141297</v>
       </c>
       <c r="N24" t="n">
-        <v>1736.59991596447</v>
+        <v>1646.274692278281</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183167</v>
+        <v>2315.73845358094</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2520.76093436315</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6151,10 +6153,10 @@
         <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6169,28 +6171,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028589</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028589</v>
+        <v>278.8655562905256</v>
       </c>
     </row>
     <row r="26">
@@ -6221,52 +6223,52 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614725</v>
@@ -6300,28 +6302,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>199.2415044384089</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>199.2415044384089</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>199.2415044384089</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>199.2415044384089</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>199.2415044384089</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>199.2415044384089</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
         <v>507.4972331799365</v>
@@ -6406,28 +6408,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>964.1357418247865</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U28" t="n">
-        <v>964.1357418247865</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V28" t="n">
-        <v>709.4512536188996</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W28" t="n">
-        <v>420.034083581939</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X28" t="n">
-        <v>420.034083581939</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y28" t="n">
-        <v>199.2415044384089</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231262</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141866</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6528,16 +6530,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
         <v>138.7081686256435</v>
@@ -6546,13 +6548,13 @@
         <v>287.7778528277034</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341676</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M30" t="n">
-        <v>1302.911127126629</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O30" t="n">
         <v>2331.418122136705</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3845.975811154765</v>
+        <v>785.4801130615103</v>
       </c>
       <c r="C31" t="n">
-        <v>3677.039628226858</v>
+        <v>616.5439301336035</v>
       </c>
       <c r="D31" t="n">
-        <v>3526.922988814522</v>
+        <v>466.4272907212677</v>
       </c>
       <c r="E31" t="n">
-        <v>3526.922988814522</v>
+        <v>466.4272907212677</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916677</v>
+        <v>466.4272907212677</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916677</v>
+        <v>298.2519690410883</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916677</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431058</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436455</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014294</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014294</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>4860.854573014294</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U31" t="n">
-        <v>4571.725934227852</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V31" t="n">
-        <v>4317.041446021965</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W31" t="n">
-        <v>4027.624275985005</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="X31" t="n">
-        <v>4027.624275985005</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="Y31" t="n">
-        <v>4027.624275985005</v>
+        <v>967.1285778917501</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6679,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
         <v>1701.09316900344</v>
@@ -6686,31 +6688,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643324</v>
@@ -6722,25 +6724,25 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,16 +6767,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>138.7081686256435</v>
@@ -6783,16 +6785,16 @@
         <v>287.7778528277034</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341676</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1538.857683528587</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P33" t="n">
         <v>2536.440602918915</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028587</v>
+        <v>3717.221392895051</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028587</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S34" t="n">
-        <v>1382.222354598087</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011507</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952638</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>4347.651987766838</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028587</v>
+        <v>4119.662436868821</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028587</v>
+        <v>3898.869857725291</v>
       </c>
     </row>
     <row r="35">
@@ -6935,10 +6937,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6956,7 +6958,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
@@ -6974,7 +6976,7 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7017,25 +7019,25 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277034</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341676</v>
+        <v>796.3635653766204</v>
       </c>
       <c r="M36" t="n">
-        <v>1302.911127126629</v>
+        <v>1236.836466556557</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>434.3285960683721</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
         <v>97.21709146028587</v>
@@ -7117,28 +7119,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1488.464616235101</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1288.544606150654</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T37" t="n">
-        <v>1064.759190940159</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U37" t="n">
-        <v>1064.759190940159</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V37" t="n">
-        <v>1064.759190940159</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W37" t="n">
-        <v>1064.759190940159</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X37" t="n">
-        <v>836.769640042142</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>615.9770608986119</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7151,13 +7153,13 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
         <v>904.3190116155888</v>
@@ -7172,10 +7174,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7254,22 +7256,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341676</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M39" t="n">
-        <v>1302.911127126629</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>2279.445761859783</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2484.468242641993</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>1096.475226584133</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>927.5390436562259</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>777.4224042438901</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>629.509310661497</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
         <v>259.7851881688072</v>
@@ -7339,7 +7341,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7348,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011507</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952638</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>1278.123691414372</v>
       </c>
     </row>
     <row r="41">
@@ -7409,10 +7411,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7424,25 +7426,25 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
         <v>3931.294970121731</v>
@@ -7488,25 +7490,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>901.6749225845922</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1538.857683528587</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2208.321444831246</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>785.4801130615103</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028587</v>
@@ -7567,7 +7569,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
         <v>259.7851881688072</v>
@@ -7576,7 +7578,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7585,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347409</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609669</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V43" t="n">
-        <v>731.31772835508</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W43" t="n">
-        <v>441.9005583181194</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="X43" t="n">
-        <v>213.9110074201021</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028587</v>
+        <v>967.1285778917501</v>
       </c>
     </row>
     <row r="44">
@@ -7625,10 +7627,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7643,13 +7645,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7658,7 +7660,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643324</v>
@@ -7670,25 +7672,25 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7713,37 +7715,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277034</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341675</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3885.755254472816</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="C46" t="n">
-        <v>3885.755254472816</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="D46" t="n">
-        <v>3885.755254472816</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="E46" t="n">
-        <v>3885.755254472816</v>
+        <v>289.7833290482027</v>
       </c>
       <c r="F46" t="n">
-        <v>3738.865306974906</v>
+        <v>289.7833290482027</v>
       </c>
       <c r="G46" t="n">
-        <v>3570.689985294726</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
-        <v>3570.689985294726</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916674</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625195</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636324</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403507</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4749.779469576117</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4549.859459491669</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>4326.074044281175</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>4036.945405494733</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>3885.755254472816</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W46" t="n">
-        <v>3885.755254472816</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X46" t="n">
-        <v>3885.755254472816</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y46" t="n">
-        <v>3885.755254472816</v>
+        <v>437.6964226305959</v>
       </c>
     </row>
   </sheetData>
@@ -8058,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>125.6774978810002</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>188.9217756997213</v>
       </c>
       <c r="M3" t="n">
-        <v>187.6430684261041</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N3" t="n">
-        <v>381.709495280812</v>
+        <v>387.9064735273547</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>124.5219861368073</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,16 +8303,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>458.2546405184957</v>
+        <v>287.5584315423333</v>
       </c>
       <c r="N6" t="n">
-        <v>58.18106165674992</v>
+        <v>437.615280947046</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>311.3545546349421</v>
+        <v>85.68821697936153</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8544,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -8939,7 +8941,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627471</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9003,19 +9005,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9024,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9246,25 +9248,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>360.5026862907244</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298192</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,28 +9482,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>96.03744927814574</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229525</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445194</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298008</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,7 +9719,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>91.23759968302025</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9729,16 +9731,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>15.83804904622723</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>423.3376789165111</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445216</v>
@@ -10194,16 +10196,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>29.47535963978197</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>423.3376789165111</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10370,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,19 +10433,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>124.3400780863226</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,16 +10667,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>134.4977453535101</v>
       </c>
       <c r="N36" t="n">
-        <v>423.3376789165111</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10686,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,13 +10907,13 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>423.3376789165111</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10920,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>52.49733361305221</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11078,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599058</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>124.3400780863226</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11382,7 +11384,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.7003683229576</v>
+        <v>73.53204524669997</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -11394,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>161.2364293207917</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>146.4512427238725</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,16 +23466,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23650,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23665,10 +23667,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>82.39383318338557</v>
+        <v>90.4740866492011</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,10 +23901,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>9.458763401644887</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23941,16 +23943,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>61.34209567542524</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.4192454642719</v>
+        <v>3.847734843216728</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037926</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>61.34209567542217</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24409,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>52.39982339880441</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24616,7 +24618,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>47.90965951919435</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,13 +24660,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>194.5731143188399</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24847,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>78.3311290740639</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>60.30854502681369</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>78.255050573413</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25087,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25123,16 +25125,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>82.39383318338523</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25324,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25357,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>99.61721462421933</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>79.43092547709092</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>44.27839330891801</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338523</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>75.25074176866457</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>103.0576765518768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25871,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -26029,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>124.766821618876</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>102.4593938121304</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>792986.427957674</v>
+        <v>793034.2601679917</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>793554.2305552119</v>
+        <v>793482.4544472841</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>751919.5123764878</v>
+        <v>751919.5123764882</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>751919.512376488</v>
+        <v>751919.5123764881</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>751919.512376488</v>
+        <v>751919.5123764881</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>751919.5123764881</v>
+        <v>751919.512376488</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>751919.512376488</v>
+        <v>751919.5123764881</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>751919.5123764878</v>
+        <v>751919.5123764881</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>751919.512376488</v>
+        <v>751919.5123764881</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>751919.5123764881</v>
+        <v>751919.512376488</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>751919.5123764881</v>
+        <v>751919.512376488</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.460138034</v>
       </c>
       <c r="D2" t="n">
         <v>677359.4601380333</v>
       </c>
       <c r="E2" t="n">
+        <v>645197.9485672195</v>
+      </c>
+      <c r="F2" t="n">
         <v>645197.9485672194</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>645197.9485672199</v>
+      </c>
+      <c r="H2" t="n">
         <v>645197.9485672195</v>
-      </c>
-      <c r="G2" t="n">
-        <v>645197.9485672194</v>
-      </c>
-      <c r="H2" t="n">
-        <v>645197.9485672194</v>
       </c>
       <c r="I2" t="n">
         <v>645197.9485672193</v>
@@ -26338,10 +26340,10 @@
         <v>645197.9485672194</v>
       </c>
       <c r="K2" t="n">
-        <v>645197.9485672192</v>
+        <v>645197.9485672193</v>
       </c>
       <c r="L2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672191</v>
       </c>
       <c r="M2" t="n">
         <v>645197.9485672195</v>
@@ -26353,7 +26355,7 @@
         <v>645197.9485672194</v>
       </c>
       <c r="P2" t="n">
-        <v>645197.9485672195</v>
+        <v>645197.9485672197</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110394.4548749495</v>
+        <v>126293.3414468129</v>
       </c>
       <c r="C3" t="n">
-        <v>138241.1818300987</v>
+        <v>106137.1517703839</v>
       </c>
       <c r="D3" t="n">
-        <v>300621.8974133504</v>
+        <v>316711.9424252108</v>
       </c>
       <c r="E3" t="n">
         <v>525160.0364768963</v>
@@ -26378,25 +26380,25 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.651701151989983e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>1.428457039764908e-09</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>5.363372581306411e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>68875.69873124985</v>
+        <v>72254.69487113884</v>
       </c>
       <c r="K3" t="n">
-        <v>31952.95942414831</v>
+        <v>24677.24609313406</v>
       </c>
       <c r="L3" t="n">
-        <v>72609.89266179889</v>
+        <v>76496.15793817145</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>304469.3167485496</v>
+        <v>300141.6569151476</v>
       </c>
       <c r="C4" t="n">
-        <v>265031.2936389868</v>
+        <v>269877.2512870323</v>
       </c>
       <c r="D4" t="n">
         <v>174490.7773218262</v>
@@ -26427,37 +26429,37 @@
         <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
+        <v>29303.54555230234</v>
+      </c>
+      <c r="G4" t="n">
+        <v>29303.54555230232</v>
+      </c>
+      <c r="H4" t="n">
+        <v>29303.54555230223</v>
+      </c>
+      <c r="I4" t="n">
+        <v>29303.5455523023</v>
+      </c>
+      <c r="J4" t="n">
         <v>29303.54555230233</v>
       </c>
-      <c r="G4" t="n">
+      <c r="K4" t="n">
         <v>29303.54555230233</v>
       </c>
-      <c r="H4" t="n">
-        <v>29303.5455523023</v>
-      </c>
-      <c r="I4" t="n">
-        <v>29303.54555230226</v>
-      </c>
-      <c r="J4" t="n">
-        <v>29303.54555230232</v>
-      </c>
-      <c r="K4" t="n">
-        <v>29303.54555230226</v>
-      </c>
       <c r="L4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230231</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230222</v>
+        <v>29303.54555230237</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50134.40740683333</v>
+        <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>60032.1756226717</v>
+        <v>58810.42201485715</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26479,37 +26481,37 @@
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871669</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871667</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871665</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>212361.2811077015</v>
+        <v>199743.0822592929</v>
       </c>
       <c r="C6" t="n">
-        <v>214054.8090462766</v>
+        <v>242534.6350657606</v>
       </c>
       <c r="D6" t="n">
-        <v>119387.7073394472</v>
+        <v>103297.6623275868</v>
       </c>
       <c r="E6" t="n">
-        <v>-1252.959410695796</v>
+        <v>-1252.959410695679</v>
       </c>
       <c r="F6" t="n">
+        <v>523907.0770662004</v>
+      </c>
+      <c r="G6" t="n">
+        <v>523907.0770662007</v>
+      </c>
+      <c r="H6" t="n">
         <v>523907.0770662006</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
+        <v>523907.0770662004</v>
+      </c>
+      <c r="J6" t="n">
+        <v>451652.3821950615</v>
+      </c>
+      <c r="K6" t="n">
+        <v>499229.8309730664</v>
+      </c>
+      <c r="L6" t="n">
+        <v>447410.9191280288</v>
+      </c>
+      <c r="M6" t="n">
+        <v>389106.0618323633</v>
+      </c>
+      <c r="N6" t="n">
         <v>523907.0770662006</v>
       </c>
-      <c r="H6" t="n">
-        <v>523907.077066199</v>
-      </c>
-      <c r="I6" t="n">
-        <v>523907.0770662016</v>
-      </c>
-      <c r="J6" t="n">
-        <v>455031.3783349506</v>
-      </c>
-      <c r="K6" t="n">
-        <v>491954.1176420519</v>
-      </c>
-      <c r="L6" t="n">
-        <v>451297.1844044016</v>
-      </c>
-      <c r="M6" t="n">
-        <v>389106.0618323634</v>
-      </c>
-      <c r="N6" t="n">
-        <v>523907.0770662005</v>
-      </c>
       <c r="O6" t="n">
-        <v>523907.0770662005</v>
+        <v>523907.0770662004</v>
       </c>
       <c r="P6" t="n">
         <v>523907.0770662007</v>
@@ -26716,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.704215726633014e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.01338268678932</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>130.7784101792246</v>
+        <v>117.5602045593891</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26750,13 +26752,13 @@
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="H3" t="n">
-        <v>830.382405454102</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541004</v>
@@ -26771,13 +26773,13 @@
         <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26787,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.2420339516666</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>387.3948401441548</v>
+        <v>372.0396308464222</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26799,10 +26801,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
         <v>1215.213643253574</v>
@@ -26811,10 +26813,10 @@
         <v>1215.213643253574</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
@@ -26926,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.704215726633014e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26957,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.01338268678932</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>107.7650274924353</v>
+        <v>82.53894384026381</v>
       </c>
       <c r="D3" t="n">
-        <v>246.9652540378621</v>
+        <v>260.1834596576975</v>
       </c>
       <c r="E3" t="n">
         <v>452.6387412370137</v>
@@ -26972,16 +26974,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>1.70530256582424e-12</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-8.514998500263958e-15</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.2420339516666</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>124.1528061924882</v>
+        <v>95.88311714406677</v>
       </c>
       <c r="D4" t="n">
-        <v>286.8924326104008</v>
+        <v>302.2476419081334</v>
       </c>
       <c r="E4" t="n">
         <v>540.9263704990177</v>
@@ -27027,22 +27029,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516666</v>
+        <v>276.1565137023551</v>
       </c>
       <c r="K4" t="n">
-        <v>124.1528061924882</v>
+        <v>95.88311714406632</v>
       </c>
       <c r="L4" t="n">
-        <v>286.8924326104006</v>
+        <v>302.2476419081336</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.926370499018</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.704215726633014e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27255,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516666</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>124.1528061924882</v>
+        <v>95.88311714406677</v>
       </c>
       <c r="L4" t="n">
-        <v>286.8924326104008</v>
+        <v>302.2476419081334</v>
       </c>
       <c r="M4" t="n">
         <v>540.9263704990177</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.491807711814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>102.030857819341</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>178.7993369999962</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>338.5273214908784</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>144.0576027644702</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>206.9118586999128</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>222.6908602868995</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3382516189322</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>73.08445501505759</v>
       </c>
       <c r="X2" t="n">
-        <v>107.7180126099405</v>
+        <v>93.57458697611361</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>110.0814249536982</v>
       </c>
     </row>
     <row r="3">
@@ -27455,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>56.98594527439742</v>
+        <v>2.4678811220261</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>97.08446202703757</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9381254702172</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27521,10 +27523,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27540,28 +27542,28 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>135.2143665578067</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9494798159088</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H4" t="n">
-        <v>161.8582038473137</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I4" t="n">
-        <v>154.2024705022108</v>
+        <v>82.24660231436351</v>
       </c>
       <c r="J4" t="n">
-        <v>90.42516245839145</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>17.44799951871617</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27579,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.6870224659892</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R4" t="n">
-        <v>175.4274210366964</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S4" t="n">
-        <v>223.2933741908973</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T4" t="n">
-        <v>227.7682732010226</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>10.69421081705838</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>19.48120559755665</v>
+        <v>199.3654560307044</v>
       </c>
       <c r="G5" t="n">
-        <v>136.9513610716068</v>
+        <v>42.79050283128817</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>334.6347480657416</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>192.2558301280909</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>198.2506096409304</v>
       </c>
       <c r="T5" t="n">
-        <v>220.7944124161532</v>
+        <v>221.0270262658048</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3035935196382</v>
+        <v>251.3078446008425</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>14.19830780963139</v>
       </c>
     </row>
     <row r="6">
@@ -27692,16 +27694,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27710,7 +27712,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>109.5187078288111</v>
+        <v>109.7932973455552</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27740,16 +27742,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.69274760078366</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>199.0309045537394</v>
+        <v>199.1455039024624</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9228757021759</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27758,10 +27760,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>174.7367807481726</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>184.1393025353008</v>
       </c>
     </row>
     <row r="7">
@@ -27786,16 +27788,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.7551494384634</v>
+        <v>167.7789855469582</v>
       </c>
       <c r="H7" t="n">
-        <v>160.1304301278448</v>
+        <v>160.342354801553</v>
       </c>
       <c r="I7" t="n">
-        <v>148.3584260604898</v>
+        <v>149.0752428504967</v>
       </c>
       <c r="J7" t="n">
-        <v>76.68600477300345</v>
+        <v>78.37121764358476</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,31 +27818,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>66.41450331463147</v>
+        <v>37.96206432014233</v>
       </c>
       <c r="R7" t="n">
-        <v>166.6896206108343</v>
+        <v>167.761378725518</v>
       </c>
       <c r="S7" t="n">
-        <v>219.9067257039628</v>
+        <v>220.3221240674583</v>
       </c>
       <c r="T7" t="n">
-        <v>226.9379524973924</v>
+        <v>227.0397976882337</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3061659063093</v>
+        <v>286.3074660576818</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>142.1561749758196</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>61.20181865357</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,19 +27909,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>225.188523070633</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>26.42655497161951</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28032,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>131.1491939189446</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -29086,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>-1.040985854038799e-12</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29509,7 +29511,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -30730,7 +30732,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09251611130367561</v>
+        <v>0.140788987815579</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9474806248887681</v>
+        <v>1.441855221466299</v>
       </c>
       <c r="I2" t="n">
-        <v>3.566727381034957</v>
+        <v>5.427767452760113</v>
       </c>
       <c r="J2" t="n">
-        <v>7.852189301760345</v>
+        <v>11.94928935461251</v>
       </c>
       <c r="K2" t="n">
-        <v>11.76839629324494</v>
+        <v>17.90888720884597</v>
       </c>
       <c r="L2" t="n">
-        <v>14.5997362345548</v>
+        <v>22.217558194707</v>
       </c>
       <c r="M2" t="n">
-        <v>16.24501962895154</v>
+        <v>24.7213143567723</v>
       </c>
       <c r="N2" t="n">
-        <v>16.50788103019311</v>
+        <v>25.12133106840331</v>
       </c>
       <c r="O2" t="n">
-        <v>15.58792394841718</v>
+        <v>23.72136057081215</v>
       </c>
       <c r="P2" t="n">
-        <v>13.30393245060769</v>
+        <v>20.24563243411504</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544806</v>
+        <v>15.20362680796961</v>
       </c>
       <c r="R2" t="n">
-        <v>5.811515176679518</v>
+        <v>8.84383625587037</v>
       </c>
       <c r="S2" t="n">
-        <v>2.10821088633251</v>
+        <v>3.208229059847509</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4049892772318401</v>
+        <v>0.6163037941626972</v>
       </c>
       <c r="U2" t="n">
-        <v>0.007401288904294047</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04950048351498081</v>
+        <v>0.0753287494713261</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4780704592104726</v>
+        <v>0.727517133052018</v>
       </c>
       <c r="I3" t="n">
-        <v>1.704292963125436</v>
+        <v>2.593555628727676</v>
       </c>
       <c r="J3" t="n">
-        <v>4.676710155246499</v>
+        <v>7.116914878779982</v>
       </c>
       <c r="K3" t="n">
-        <v>7.993242550750213</v>
+        <v>12.16394109335883</v>
       </c>
       <c r="L3" t="n">
-        <v>10.74790103688213</v>
+        <v>16.35591992358772</v>
       </c>
       <c r="M3" t="n">
-        <v>12.54229356430018</v>
+        <v>19.08658709192328</v>
       </c>
       <c r="N3" t="n">
-        <v>12.87425075418793</v>
+        <v>19.59175225833406</v>
       </c>
       <c r="O3" t="n">
-        <v>11.77742425104019</v>
+        <v>17.92262575689047</v>
       </c>
       <c r="P3" t="n">
-        <v>9.452421277522959</v>
+        <v>14.38448725650261</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.318693299210533</v>
+        <v>9.615648792164365</v>
       </c>
       <c r="R3" t="n">
-        <v>3.073372125605564</v>
+        <v>4.676990252263565</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9194497705523842</v>
+        <v>1.399198482504675</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1995216857467866</v>
+        <v>0.3036277226497748</v>
       </c>
       <c r="U3" t="n">
-        <v>0.003256610757564529</v>
+        <v>0.004955838781008299</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04149954254994796</v>
+        <v>0.06315309310006199</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3689686601259012</v>
+        <v>0.5614884095623698</v>
       </c>
       <c r="I4" t="n">
-        <v>1.248004425047526</v>
+        <v>1.89918574522732</v>
       </c>
       <c r="J4" t="n">
-        <v>2.93401765828132</v>
+        <v>4.464923682174383</v>
       </c>
       <c r="K4" t="n">
-        <v>4.82149230716668</v>
+        <v>7.337241180170838</v>
       </c>
       <c r="L4" t="n">
-        <v>6.169850171471355</v>
+        <v>9.389142586894673</v>
       </c>
       <c r="M4" t="n">
-        <v>6.505241928988659</v>
+        <v>9.899534402948808</v>
       </c>
       <c r="N4" t="n">
-        <v>6.350561815847949</v>
+        <v>9.66414560139404</v>
       </c>
       <c r="O4" t="n">
-        <v>5.865771705150828</v>
+        <v>8.926402650179675</v>
       </c>
       <c r="P4" t="n">
-        <v>5.019181037131886</v>
+        <v>7.638079550938405</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.475020785705188</v>
+        <v>5.28821036858792</v>
       </c>
       <c r="R4" t="n">
-        <v>1.865970340473114</v>
+        <v>2.83959271339006</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7232238460750019</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1773162272588685</v>
+        <v>0.2698359432457194</v>
       </c>
       <c r="U4" t="n">
-        <v>0.002263611411815346</v>
+        <v>0.003444714169094295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5257423524792944</v>
+        <v>0.4726038374246795</v>
       </c>
       <c r="H5" t="n">
-        <v>5.384258867328575</v>
+        <v>4.8400540500255</v>
       </c>
       <c r="I5" t="n">
-        <v>20.26868204395802</v>
+        <v>18.22005944231497</v>
       </c>
       <c r="J5" t="n">
-        <v>44.62172498873955</v>
+        <v>40.11165994662293</v>
       </c>
       <c r="K5" t="n">
-        <v>66.8763987691881</v>
+        <v>60.11698038480962</v>
       </c>
       <c r="L5" t="n">
-        <v>82.96608628887633</v>
+        <v>74.58043007439517</v>
       </c>
       <c r="M5" t="n">
-        <v>92.31575684977997</v>
+        <v>82.98509856819631</v>
       </c>
       <c r="N5" t="n">
-        <v>93.80952230876177</v>
+        <v>84.32788422127919</v>
       </c>
       <c r="O5" t="n">
-        <v>88.58167179129578</v>
+        <v>79.62842981288752</v>
       </c>
       <c r="P5" t="n">
-        <v>75.60240746446318</v>
+        <v>67.96102257646574</v>
       </c>
       <c r="Q5" t="n">
-        <v>56.77425946629844</v>
+        <v>51.03589764869439</v>
       </c>
       <c r="R5" t="n">
-        <v>33.0251630489275</v>
+        <v>29.68720080262805</v>
       </c>
       <c r="S5" t="n">
-        <v>11.98035385712193</v>
+        <v>10.76945994531489</v>
       </c>
       <c r="T5" t="n">
-        <v>2.301437147978112</v>
+        <v>2.068823298326536</v>
       </c>
       <c r="U5" t="n">
-        <v>0.04205938819834355</v>
+        <v>0.03780830699397435</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2812969577439925</v>
+        <v>0.2528653456560445</v>
       </c>
       <c r="H6" t="n">
-        <v>2.716736407685401</v>
+        <v>2.442146890941272</v>
       </c>
       <c r="I6" t="n">
-        <v>9.685004904782199</v>
+        <v>8.706109488596271</v>
       </c>
       <c r="J6" t="n">
-        <v>26.57639371387431</v>
+        <v>23.89022987182831</v>
       </c>
       <c r="K6" t="n">
-        <v>45.42328988272181</v>
+        <v>40.83220803078329</v>
       </c>
       <c r="L6" t="n">
-        <v>61.07721882945768</v>
+        <v>54.90394270483546</v>
       </c>
       <c r="M6" t="n">
-        <v>71.27423354767738</v>
+        <v>64.07031148486705</v>
       </c>
       <c r="N6" t="n">
-        <v>73.16065042658339</v>
+        <v>65.76606198270957</v>
       </c>
       <c r="O6" t="n">
-        <v>66.92770204709807</v>
+        <v>60.16309827106775</v>
       </c>
       <c r="P6" t="n">
-        <v>53.71538134323661</v>
+        <v>48.28619043496871</v>
       </c>
       <c r="Q6" t="n">
-        <v>35.90730990430333</v>
+        <v>32.27803956128736</v>
       </c>
       <c r="R6" t="n">
-        <v>17.46508655185947</v>
+        <v>15.69983260134635</v>
       </c>
       <c r="S6" t="n">
-        <v>5.224967614235998</v>
+        <v>4.696862889707665</v>
       </c>
       <c r="T6" t="n">
-        <v>1.133824141082145</v>
+        <v>1.019224792359232</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01850637879894688</v>
+        <v>0.01663587800368714</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.235829919995323</v>
+        <v>0.2119938115005377</v>
       </c>
       <c r="H7" t="n">
-        <v>2.096742379594782</v>
+        <v>1.8848177058866</v>
       </c>
       <c r="I7" t="n">
-        <v>7.092048866768443</v>
+        <v>6.375232076761627</v>
       </c>
       <c r="J7" t="n">
-        <v>16.67317534366934</v>
+        <v>14.98796247308801</v>
       </c>
       <c r="K7" t="n">
-        <v>27.39914888672934</v>
+        <v>24.6298264634261</v>
       </c>
       <c r="L7" t="n">
-        <v>35.06147737821375</v>
+        <v>31.5176981207254</v>
       </c>
       <c r="M7" t="n">
-        <v>36.96741191344867</v>
+        <v>33.23099356094338</v>
       </c>
       <c r="N7" t="n">
-        <v>36.08840948437523</v>
+        <v>32.44083480898685</v>
       </c>
       <c r="O7" t="n">
-        <v>33.33348723715712</v>
+        <v>29.96436164736692</v>
       </c>
       <c r="P7" t="n">
-        <v>28.52255686925251</v>
+        <v>25.63968789275593</v>
       </c>
       <c r="Q7" t="n">
-        <v>19.74753993706291</v>
+        <v>17.75159088846775</v>
       </c>
       <c r="R7" t="n">
-        <v>10.60377076633516</v>
+        <v>9.532012651651447</v>
       </c>
       <c r="S7" t="n">
-        <v>4.1098723330094</v>
+        <v>3.694473969513915</v>
       </c>
       <c r="T7" t="n">
-        <v>1.007636930889107</v>
+        <v>0.9057917400477518</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01286345018156309</v>
+        <v>0.01156329880912025</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,43 +32311,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443624</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444952</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.327311296121</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041497</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304451</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565532</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927198</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540898</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130947003</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647504</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446482</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104665</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562947</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354899</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386729</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127077</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622989</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358993</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724855</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813471</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855535</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458556</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710961</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677472</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361505</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680334</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990348</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629864</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J22" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557938</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196129</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171324</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263755</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469077</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235694</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337684</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336906</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892259</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351831</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
         <v>34.18755300444946</v>
@@ -32707,40 +32709,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,7 +32785,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
@@ -32792,19 +32794,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710957</v>
@@ -32813,13 +32815,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33886,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34284,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34521,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,25 +34701,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>115.8239578194291</v>
+        <v>121.9644487350302</v>
       </c>
       <c r="L2" t="n">
-        <v>196.494535815018</v>
+        <v>204.1123577751702</v>
       </c>
       <c r="M2" t="n">
-        <v>235.4123198945113</v>
+        <v>243.8886146223321</v>
       </c>
       <c r="N2" t="n">
-        <v>224.4417418455864</v>
+        <v>233.0551918837966</v>
       </c>
       <c r="O2" t="n">
-        <v>166.2898937894758</v>
+        <v>174.4233304118708</v>
       </c>
       <c r="P2" t="n">
-        <v>103.8696448668208</v>
+        <v>110.8113448503281</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>5.212927593424808</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.930118828988642</v>
+        <v>6.370323552522125</v>
       </c>
       <c r="K3" t="n">
-        <v>134.6170405889698</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>243.0338665604671</v>
+        <v>66.7233158434348</v>
       </c>
       <c r="M3" t="n">
-        <v>58.05132806838593</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="N3" t="n">
-        <v>263.2420339516666</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="O3" t="n">
-        <v>263.0434990833253</v>
+        <v>269.1887005891755</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>198.8728484821095</v>
       </c>
       <c r="Q3" t="n">
-        <v>76.41420694903812</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>33.75987543178749</v>
+        <v>36.97916784721081</v>
       </c>
       <c r="M4" t="n">
-        <v>46.08911889082925</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>50.48273419507654</v>
+        <v>53.79631798062263</v>
       </c>
       <c r="O4" t="n">
-        <v>30.4508996191905</v>
+        <v>33.51153056421935</v>
       </c>
       <c r="P4" t="n">
-        <v>2.297740302025374</v>
+        <v>4.916638815831893</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>32.67243563412703</v>
+        <v>28.16237059201041</v>
       </c>
       <c r="K5" t="n">
-        <v>170.9319602953723</v>
+        <v>164.1725419109938</v>
       </c>
       <c r="L5" t="n">
-        <v>264.8608858693395</v>
+        <v>256.4752296548584</v>
       </c>
       <c r="M5" t="n">
-        <v>311.4830571153398</v>
+        <v>302.1523988337561</v>
       </c>
       <c r="N5" t="n">
-        <v>301.743383124155</v>
+        <v>292.2617450366724</v>
       </c>
       <c r="O5" t="n">
-        <v>239.2836416323544</v>
+        <v>230.3303996539461</v>
       </c>
       <c r="P5" t="n">
-        <v>166.1681198806763</v>
+        <v>158.5267349926788</v>
       </c>
       <c r="Q5" t="n">
-        <v>46.78356025175363</v>
+        <v>41.04519843414958</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>25.82980238761646</v>
+        <v>23.14363854557046</v>
       </c>
       <c r="K6" t="n">
-        <v>172.0470879209414</v>
+        <v>167.4560060690029</v>
       </c>
       <c r="L6" t="n">
-        <v>293.3631843530427</v>
+        <v>287.1899082284204</v>
       </c>
       <c r="M6" t="n">
-        <v>387.3948401441548</v>
+        <v>209.494709105182</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>372.0396308464222</v>
       </c>
       <c r="O6" t="n">
-        <v>318.1937768793832</v>
+        <v>311.4291731033528</v>
       </c>
       <c r="P6" t="n">
-        <v>231.0955285638485</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>106.0028235541309</v>
+        <v>102.3735532111149</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>5.129657060846483</v>
+        <v>2.36033463754325</v>
       </c>
       <c r="L7" t="n">
-        <v>62.65150263852989</v>
+        <v>59.10772338104154</v>
       </c>
       <c r="M7" t="n">
-        <v>76.55128887528926</v>
+        <v>72.81487052278396</v>
       </c>
       <c r="N7" t="n">
-        <v>80.22058186360383</v>
+        <v>76.57300718821544</v>
       </c>
       <c r="O7" t="n">
-        <v>57.9186151511968</v>
+        <v>54.5494895614066</v>
       </c>
       <c r="P7" t="n">
-        <v>25.801116134146</v>
+        <v>22.91824715764942</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35264,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35659,7 +35661,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951489</v>
       </c>
       <c r="P14" t="n">
         <v>570.6060255109123</v>
@@ -35723,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336992</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
@@ -35744,7 +35746,7 @@
         <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>609.7603912467489</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N18" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>525.556183571462</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415085</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303339</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109083</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221129</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081131</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951484</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109134</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502056</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349853</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490702</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879399</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560251</v>
+        <v>345.2951542341702</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734197</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415674</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411091</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315254</v>
+        <v>525.556183571462</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507459</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556576</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299109</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.214186879929</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.309841178973</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056042</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206033</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118011</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187502</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K24" t="n">
-        <v>241.8130382709595</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N24" t="n">
         <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>103.8510818313014</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36522,19 +36524,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>756.532252314524</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,16 +36916,16 @@
         <v>150.5754385879393</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M30" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>756.532252314524</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P30" t="n">
         <v>207.0934149315248</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,19 +37153,19 @@
         <v>150.5754385879393</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734238</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315248</v>
+        <v>331.4334930178474</v>
       </c>
       <c r="Q33" t="n">
         <v>88.01303278507416</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,16 +37387,16 @@
         <v>41.91017895490671</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>444.9221224039765</v>
       </c>
       <c r="N36" t="n">
-        <v>756.532252314524</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
@@ -37406,7 +37408,7 @@
         <v>88.01303278507416</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37546,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>756.532252314524</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507416</v>
+        <v>140.5103663981263</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37719,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>331.4334930178474</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37956,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,25 +38022,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081129</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349582</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734239</v>
+        <v>383.9564222971663</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38193,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3030773.558687862</v>
+        <v>3023600.269977579</v>
       </c>
     </row>
     <row r="7">
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>228.0767087417152</v>
+        <v>30.84706996067879</v>
       </c>
       <c r="G2" t="n">
         <v>15.16194852731947</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -743,22 +743,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>84.33519610066131</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>223.9792376856556</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -825,25 +825,25 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>7.203367682519206</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>71.30468686766744</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>88.89425643449839</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>372.0396308464222</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>270.2470340226221</v>
       </c>
       <c r="F5" t="n">
-        <v>207.5105897110071</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>372.0396308464222</v>
+        <v>14.83013367771037</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>372.0396308464222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.0906518175546</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>80.69052336281881</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.45800155129679</v>
+        <v>61.17339989484805</v>
       </c>
       <c r="S6" t="n">
-        <v>166.9863082141302</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9247462029711</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>21.54339324200352</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.7789855469582</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>78.37121764358471</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>30.44838804308429</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>36.43582817636977</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>25.73468253713836</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>124.05244564678</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1290,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.4054252103178</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>14.46389722690851</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1530,19 +1530,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>20.79557837475532</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1590,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634836</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505273776</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="15">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>195.7632657493762</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634821</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T18" t="n">
         <v>192.9654699154601</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>135.9622846212864</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>106.5715106210552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>169.1477376595848</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>169.7438101404427</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.272891771009</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2769,10 +2769,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>57.56452900498805</v>
+        <v>169.7438101404427</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2809,7 +2809,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274074</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>88.60528334072244</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789693</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>88.99177052521483</v>
+        <v>115.1182790519513</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>118.4898845065123</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>101.1426547140132</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>204.1291651532057</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710083</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>91.99607932996327</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>172.9623007107249</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4143,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>41.72674684450156</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>157.2425576766698</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>267.7881344992538</v>
+        <v>275.6855924150208</v>
       </c>
       <c r="C2" t="n">
-        <v>267.7881344992538</v>
+        <v>275.6855924150208</v>
       </c>
       <c r="D2" t="n">
-        <v>267.7881344992538</v>
+        <v>275.6855924150208</v>
       </c>
       <c r="E2" t="n">
-        <v>267.7881344992538</v>
+        <v>275.6855924150208</v>
       </c>
       <c r="F2" t="n">
-        <v>37.40762061873335</v>
+        <v>244.5269358890827</v>
       </c>
       <c r="G2" t="n">
-        <v>22.09252109618843</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="H2" t="n">
-        <v>22.09252109618843</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="I2" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618846</v>
       </c>
       <c r="K2" t="n">
-        <v>142.8373253438683</v>
+        <v>142.8373253438684</v>
       </c>
       <c r="L2" t="n">
-        <v>344.9085595412868</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M2" t="n">
-        <v>586.3582880173956</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823541</v>
+        <v>817.0829279823544</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901064</v>
+        <v>989.7620250901066</v>
       </c>
       <c r="P2" t="n">
         <v>1099.465256491931</v>
@@ -4354,28 +4354,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="S2" t="n">
-        <v>1104.626054809422</v>
+        <v>754.2855273228794</v>
       </c>
       <c r="T2" t="n">
-        <v>1104.626054809422</v>
+        <v>529.5587134138201</v>
       </c>
       <c r="U2" t="n">
-        <v>1104.626054809422</v>
+        <v>275.6855924150208</v>
       </c>
       <c r="V2" t="n">
-        <v>1104.626054809422</v>
+        <v>275.6855924150208</v>
       </c>
       <c r="W2" t="n">
-        <v>825.6800813726991</v>
+        <v>275.6855924150208</v>
       </c>
       <c r="X2" t="n">
-        <v>546.7341079359765</v>
+        <v>275.6855924150208</v>
       </c>
       <c r="Y2" t="n">
-        <v>267.7881344992538</v>
+        <v>275.6855924150208</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>728.5592175838208</v>
+        <v>502.317563355886</v>
       </c>
       <c r="C3" t="n">
-        <v>554.1061883026938</v>
+        <v>327.864534074759</v>
       </c>
       <c r="D3" t="n">
-        <v>405.1717786414425</v>
+        <v>327.864534074759</v>
       </c>
       <c r="E3" t="n">
-        <v>245.934323635987</v>
+        <v>168.6270790693035</v>
       </c>
       <c r="F3" t="n">
-        <v>245.934323635987</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G3" t="n">
-        <v>107.2795878645332</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H3" t="n">
-        <v>107.2795878645332</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I3" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J3" t="n">
-        <v>28.39914141318534</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K3" t="n">
-        <v>28.39914141318534</v>
+        <v>159.4923828364511</v>
       </c>
       <c r="L3" t="n">
-        <v>94.45522409818579</v>
+        <v>405.6478494291521</v>
       </c>
       <c r="M3" t="n">
-        <v>367.8501726635176</v>
+        <v>562.3310704112777</v>
       </c>
       <c r="N3" t="n">
-        <v>641.2451212288495</v>
+        <v>562.3310704112777</v>
       </c>
       <c r="O3" t="n">
-        <v>907.7419348121333</v>
+        <v>828.8278839945615</v>
       </c>
       <c r="P3" t="n">
-        <v>1104.626054809422</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q3" t="n">
         <v>1104.626054809422</v>
@@ -4445,16 +4445,16 @@
         <v>1104.626054809422</v>
       </c>
       <c r="V3" t="n">
-        <v>1104.626054809422</v>
+        <v>878.3844005814869</v>
       </c>
       <c r="W3" t="n">
-        <v>1104.626054809422</v>
+        <v>878.3844005814869</v>
       </c>
       <c r="X3" t="n">
-        <v>896.7745546038889</v>
+        <v>670.5329003759541</v>
       </c>
       <c r="Y3" t="n">
-        <v>896.7745546038889</v>
+        <v>670.5329003759541</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="C4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="D4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="E4" t="n">
-        <v>198.9927170031358</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="F4" t="n">
-        <v>198.9927170031358</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="G4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I4" t="n">
-        <v>126.9677807731686</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J4" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L4" t="n">
-        <v>58.70189726492713</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6904745160686</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N4" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>194.1252445754622</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="X4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Y4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>615.1674336570363</v>
+        <v>682.9311048745087</v>
       </c>
       <c r="C5" t="n">
-        <v>615.1674336570363</v>
+        <v>682.9311048745087</v>
       </c>
       <c r="D5" t="n">
-        <v>615.1674336570363</v>
+        <v>324.6654062677582</v>
       </c>
       <c r="E5" t="n">
-        <v>615.1674336570363</v>
+        <v>51.68860422470553</v>
       </c>
       <c r="F5" t="n">
-        <v>405.5607773832918</v>
+        <v>44.74310347550205</v>
       </c>
       <c r="G5" t="n">
-        <v>29.76317046771378</v>
+        <v>29.7631704677138</v>
       </c>
       <c r="H5" t="n">
-        <v>29.76317046771378</v>
+        <v>29.7631704677138</v>
       </c>
       <c r="I5" t="n">
-        <v>29.76317046771378</v>
+        <v>29.7631704677138</v>
       </c>
       <c r="J5" t="n">
-        <v>57.64391735380408</v>
+        <v>57.64391735380423</v>
       </c>
       <c r="K5" t="n">
-        <v>220.174733845688</v>
+        <v>220.1747338456883</v>
       </c>
       <c r="L5" t="n">
-        <v>474.0852112039977</v>
+        <v>474.0852112039981</v>
       </c>
       <c r="M5" t="n">
-        <v>773.2160860494162</v>
+        <v>773.2160860494168</v>
       </c>
       <c r="N5" t="n">
-        <v>1062.555213635722</v>
+        <v>1062.555213635723</v>
       </c>
       <c r="O5" t="n">
-        <v>1290.582309293129</v>
+        <v>1290.58230929313</v>
       </c>
       <c r="P5" t="n">
-        <v>1447.523776935881</v>
+        <v>1447.523776935882</v>
       </c>
       <c r="Q5" t="n">
-        <v>1488.158523385689</v>
+        <v>1488.15852338569</v>
       </c>
       <c r="R5" t="n">
-        <v>1366.762647488192</v>
+        <v>1366.762647488194</v>
       </c>
       <c r="S5" t="n">
-        <v>1366.762647488192</v>
+        <v>1366.762647488194</v>
       </c>
       <c r="T5" t="n">
-        <v>1366.762647488192</v>
+        <v>1366.762647488194</v>
       </c>
       <c r="U5" t="n">
-        <v>1366.762647488192</v>
+        <v>1366.762647488194</v>
       </c>
       <c r="V5" t="n">
-        <v>1366.762647488192</v>
+        <v>1035.699760144623</v>
       </c>
       <c r="W5" t="n">
-        <v>1366.762647488192</v>
+        <v>682.9311048745087</v>
       </c>
       <c r="X5" t="n">
-        <v>1366.762647488192</v>
+        <v>682.9311048745087</v>
       </c>
       <c r="Y5" t="n">
-        <v>990.9650405726143</v>
+        <v>682.9311048745087</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>729.9691977580916</v>
+        <v>353.1506094100921</v>
       </c>
       <c r="C6" t="n">
-        <v>555.5161684769646</v>
+        <v>178.6975801289651</v>
       </c>
       <c r="D6" t="n">
-        <v>555.5161684769646</v>
+        <v>29.7631704677138</v>
       </c>
       <c r="E6" t="n">
-        <v>396.278713471509</v>
+        <v>29.7631704677138</v>
       </c>
       <c r="F6" t="n">
-        <v>249.744155498394</v>
+        <v>29.7631704677138</v>
       </c>
       <c r="G6" t="n">
-        <v>111.2687496220762</v>
+        <v>29.7631704677138</v>
       </c>
       <c r="H6" t="n">
-        <v>111.2687496220762</v>
+        <v>29.7631704677138</v>
       </c>
       <c r="I6" t="n">
-        <v>29.76317046771378</v>
+        <v>29.7631704677138</v>
       </c>
       <c r="J6" t="n">
-        <v>52.67537262782853</v>
+        <v>29.7631704677138</v>
       </c>
       <c r="K6" t="n">
-        <v>218.4568186361414</v>
+        <v>195.5446164760268</v>
       </c>
       <c r="L6" t="n">
-        <v>502.7748277822777</v>
+        <v>479.8626256221631</v>
       </c>
       <c r="M6" t="n">
-        <v>710.1745897964079</v>
+        <v>848.1818601601215</v>
       </c>
       <c r="N6" t="n">
-        <v>1078.493824334366</v>
+        <v>1078.493824334367</v>
       </c>
       <c r="O6" t="n">
-        <v>1386.808705706685</v>
+        <v>1386.808705706686</v>
       </c>
       <c r="P6" t="n">
-        <v>1386.808705706685</v>
+        <v>1386.808705706686</v>
       </c>
       <c r="Q6" t="n">
-        <v>1488.158523385689</v>
+        <v>1488.15852338569</v>
       </c>
       <c r="R6" t="n">
-        <v>1402.847410707611</v>
+        <v>1426.367210360591</v>
       </c>
       <c r="S6" t="n">
-        <v>1234.17437210748</v>
+        <v>1426.367210360591</v>
       </c>
       <c r="T6" t="n">
-        <v>1234.17437210748</v>
+        <v>1426.367210360591</v>
       </c>
       <c r="U6" t="n">
-        <v>1005.967557761044</v>
+        <v>1426.367210360591</v>
       </c>
       <c r="V6" t="n">
-        <v>1005.967557761044</v>
+        <v>1191.215102128848</v>
       </c>
       <c r="W6" t="n">
-        <v>751.7302010328426</v>
+        <v>936.9777454006469</v>
       </c>
       <c r="X6" t="n">
-        <v>751.7302010328426</v>
+        <v>729.1262451951141</v>
       </c>
       <c r="Y6" t="n">
-        <v>729.9691977580916</v>
+        <v>521.3659464301602</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29.76317046771378</v>
+        <v>278.3997393470501</v>
       </c>
       <c r="C7" t="n">
-        <v>29.76317046771378</v>
+        <v>278.3997393470501</v>
       </c>
       <c r="D7" t="n">
-        <v>29.76317046771378</v>
+        <v>278.3997393470501</v>
       </c>
       <c r="E7" t="n">
-        <v>29.76317046771378</v>
+        <v>278.3997393470501</v>
       </c>
       <c r="F7" t="n">
-        <v>29.76317046771378</v>
+        <v>278.3997393470501</v>
       </c>
       <c r="G7" t="n">
-        <v>29.76317046771378</v>
+        <v>108.9260165723448</v>
       </c>
       <c r="H7" t="n">
-        <v>29.76317046771378</v>
+        <v>108.9260165723448</v>
       </c>
       <c r="I7" t="n">
-        <v>29.76317046771378</v>
+        <v>108.9260165723448</v>
       </c>
       <c r="J7" t="n">
-        <v>29.76317046771378</v>
+        <v>29.7631704677138</v>
       </c>
       <c r="K7" t="n">
-        <v>32.09990175888159</v>
+        <v>32.09990175888169</v>
       </c>
       <c r="L7" t="n">
-        <v>90.61654790611271</v>
+        <v>90.61654790611288</v>
       </c>
       <c r="M7" t="n">
-        <v>162.7032697236688</v>
+        <v>162.7032697236691</v>
       </c>
       <c r="N7" t="n">
-        <v>238.5105468400021</v>
+        <v>238.5105468400025</v>
       </c>
       <c r="O7" t="n">
-        <v>292.5145415057947</v>
+        <v>292.5145415057951</v>
       </c>
       <c r="P7" t="n">
-        <v>315.2036061918676</v>
+        <v>315.2036061918681</v>
       </c>
       <c r="Q7" t="n">
-        <v>284.4476586736006</v>
+        <v>315.2036061918681</v>
       </c>
       <c r="R7" t="n">
-        <v>284.4476586736006</v>
+        <v>315.2036061918681</v>
       </c>
       <c r="S7" t="n">
-        <v>284.4476586736006</v>
+        <v>315.2036061918681</v>
       </c>
       <c r="T7" t="n">
-        <v>284.4476586736006</v>
+        <v>315.2036061918681</v>
       </c>
       <c r="U7" t="n">
-        <v>284.4476586736006</v>
+        <v>315.2036061918681</v>
       </c>
       <c r="V7" t="n">
-        <v>29.76317046771378</v>
+        <v>278.3997393470501</v>
       </c>
       <c r="W7" t="n">
-        <v>29.76317046771378</v>
+        <v>278.3997393470501</v>
       </c>
       <c r="X7" t="n">
-        <v>29.76317046771378</v>
+        <v>278.3997393470501</v>
       </c>
       <c r="Y7" t="n">
-        <v>29.76317046771378</v>
+        <v>278.3997393470501</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1422.14692331494</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="C8" t="n">
-        <v>1422.14692331494</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2671.15446219283</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2671.15446219283</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2671.15446219283</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2671.15446219283</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2340.091574849259</v>
       </c>
       <c r="W8" t="n">
-        <v>2185.752013551832</v>
+        <v>1987.322919579145</v>
       </c>
       <c r="X8" t="n">
-        <v>1812.286255290752</v>
+        <v>1613.857161318065</v>
       </c>
       <c r="Y8" t="n">
-        <v>1422.14692331494</v>
+        <v>1223.717829342253</v>
       </c>
     </row>
     <row r="9">
@@ -4859,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4907,7 +4907,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>573.1740092465172</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>404.2378263186104</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D10" t="n">
-        <v>404.2378263186104</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E10" t="n">
-        <v>404.2378263186104</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F10" t="n">
-        <v>257.3478788207</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="G10" t="n">
-        <v>257.3478788207</v>
+        <v>114.2095034521276</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5032,7 +5032,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5044,13 +5044,13 @@
         <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619128</v>
@@ -5059,16 +5059,16 @@
         <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>644.6755122555215</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619856</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>731.3177283550796</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028587</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550796</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W13" t="n">
-        <v>731.3177283550796</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X13" t="n">
-        <v>731.3177283550796</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y13" t="n">
-        <v>731.3177283550796</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.3213845506</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610188</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003438</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405193</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155859</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805475</v>
+        <v>488.193237080544</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822432</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5293,7 +5293,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899128</v>
@@ -5302,28 +5302,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K15" t="n">
-        <v>674.428562457161</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L15" t="n">
-        <v>1206.718781115523</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M15" t="n">
-        <v>1514.038914395485</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>584.7466045204288</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C16" t="n">
-        <v>415.8104215925219</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D16" t="n">
-        <v>415.8104215925219</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E16" t="n">
-        <v>415.8104215925219</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>964.135741824786</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>766.3950693506686</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>766.3950693506686</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W16" t="n">
-        <v>766.3950693506686</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X16" t="n">
-        <v>766.3950693506686</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y16" t="n">
-        <v>766.3950693506686</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="17">
@@ -5506,22 +5506,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
         <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515098</v>
@@ -5530,7 +5530,7 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P17" t="n">
         <v>4454.632848899128</v>
@@ -5539,28 +5539,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277036</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619849</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6642370999746</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7280541720677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7280541720677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7280541720677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347409</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1275.130855347409</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>1020.446367141522</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>1020.446367141522</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>792.4568162435047</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>571.6642370999746</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5743,31 +5743,31 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899128</v>
@@ -5776,28 +5776,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701563</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619849</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>355.283090438661</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>355.283090438661</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>355.283090438661</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>355.283090438661</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>355.283090438661</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>355.283090438661</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>204.8650819866043</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1275.130855347409</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>1275.130855347409</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>985.7136853104482</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>757.7241344124309</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>536.9315552689008</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5980,40 +5980,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6065,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277036</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341678</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>841.8631140141297</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1646.274692278281</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>2315.73845358094</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2520.76093436315</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119729</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1017.064856369034</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>1017.064856369034</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V25" t="n">
-        <v>1017.064856369034</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905256</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6217,55 +6217,55 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514097</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6302,7 +6302,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126483</v>
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
         <v>507.4972331799365</v>
@@ -6417,19 +6417,19 @@
         <v>1075.210845262961</v>
       </c>
       <c r="U28" t="n">
-        <v>1075.210845262961</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V28" t="n">
-        <v>1017.064856369034</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y28" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="29">
@@ -6442,25 +6442,25 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
@@ -6469,37 +6469,37 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231262</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141866</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
@@ -6539,28 +6539,28 @@
         <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>563.7235867775516</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>785.4801130615103</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="C31" t="n">
-        <v>616.5439301336035</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>466.4272907212677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>466.4272907212677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>466.4272907212677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>298.2519690410883</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U31" t="n">
-        <v>1187.92115703528</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V31" t="n">
-        <v>1187.92115703528</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W31" t="n">
-        <v>1187.92115703528</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X31" t="n">
-        <v>1187.92115703528</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="Y31" t="n">
-        <v>967.1285778917501</v>
+        <v>241.9805482336716</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643324</v>
@@ -6724,28 +6724,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="33">
@@ -6767,37 +6767,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>901.6749225845922</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1538.857683528587</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>2208.321444831246</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3717.221392895051</v>
+        <v>920.3704617345004</v>
       </c>
       <c r="C34" t="n">
-        <v>3627.330715596854</v>
+        <v>804.0893717830344</v>
       </c>
       <c r="D34" t="n">
-        <v>3627.330715596854</v>
+        <v>653.9727323706986</v>
       </c>
       <c r="E34" t="n">
-        <v>3627.330715596854</v>
+        <v>506.0596387883055</v>
       </c>
       <c r="F34" t="n">
-        <v>3627.330715596854</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916675</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T34" t="n">
-        <v>4637.069157803799</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U34" t="n">
-        <v>4637.069157803799</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V34" t="n">
-        <v>4637.069157803799</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W34" t="n">
-        <v>4347.651987766838</v>
+        <v>920.3704617345004</v>
       </c>
       <c r="X34" t="n">
-        <v>4119.662436868821</v>
+        <v>920.3704617345004</v>
       </c>
       <c r="Y34" t="n">
-        <v>3898.869857725291</v>
+        <v>920.3704617345004</v>
       </c>
     </row>
     <row r="35">
@@ -6937,13 +6937,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6964,13 +6964,13 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
@@ -7016,28 +7016,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701562</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>796.3635653766204</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1236.836466556557</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>2041.248044820708</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="C37" t="n">
         <v>97.21709146028587</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1379.229518531123</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T37" t="n">
-        <v>1379.229518531123</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U37" t="n">
-        <v>1090.100879744681</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V37" t="n">
-        <v>835.416391538794</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W37" t="n">
-        <v>545.9992215018333</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X37" t="n">
-        <v>318.0096706038159</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201021</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805486</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822479</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7253,25 +7253,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.043068977054</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>2279.445761859783</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
-        <v>2484.468242641993</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1096.475226584133</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>927.5390436562259</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>777.4224042438901</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>629.509310661497</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
         <v>259.7851881688072</v>
@@ -7341,7 +7341,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V40" t="n">
-        <v>1498.916270557902</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W40" t="n">
-        <v>1498.916270557902</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="X40" t="n">
-        <v>1498.916270557902</v>
+        <v>303.4081673726149</v>
       </c>
       <c r="Y40" t="n">
-        <v>1278.123691414372</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7390,19 +7390,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7423,7 +7423,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7432,13 +7432,13 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7447,13 +7447,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614725</v>
@@ -7490,22 +7490,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>785.4801130615103</v>
+        <v>693.7762810288177</v>
       </c>
       <c r="C43" t="n">
-        <v>692.5547804049818</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="D43" t="n">
-        <v>542.438140992646</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="E43" t="n">
-        <v>394.5250474102529</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F43" t="n">
-        <v>247.6350999123426</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
         <v>259.7851881688072</v>
@@ -7578,7 +7578,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T43" t="n">
-        <v>1187.92115703528</v>
+        <v>1324.206875900605</v>
       </c>
       <c r="U43" t="n">
-        <v>1187.92115703528</v>
+        <v>1324.206875900605</v>
       </c>
       <c r="V43" t="n">
-        <v>1187.92115703528</v>
+        <v>1324.206875900605</v>
       </c>
       <c r="W43" t="n">
-        <v>1187.92115703528</v>
+        <v>1324.206875900605</v>
       </c>
       <c r="X43" t="n">
-        <v>1187.92115703528</v>
+        <v>1096.217325002588</v>
       </c>
       <c r="Y43" t="n">
-        <v>967.1285778917501</v>
+        <v>875.4247458590575</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7639,7 +7639,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
@@ -7651,7 +7651,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7660,7 +7660,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643324</v>
@@ -7669,7 +7669,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014293</v>
@@ -7684,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7727,22 +7727,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L45" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M45" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>289.7833290482027</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>289.7833290482027</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028587</v>
@@ -7806,16 +7806,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1340.085404217832</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V46" t="n">
-        <v>955.1031435655738</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W46" t="n">
-        <v>665.6859735286132</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X46" t="n">
-        <v>437.6964226305959</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y46" t="n">
-        <v>437.6964226305959</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8057,19 +8057,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
-        <v>125.6774978810002</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>188.9217756997213</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>399.2039605324505</v>
+        <v>281.3133266100198</v>
       </c>
       <c r="N3" t="n">
-        <v>387.9064735273547</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>102.9473967948383</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8303,16 +8303,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>287.5584315423333</v>
+        <v>450.1033532835737</v>
       </c>
       <c r="N6" t="n">
-        <v>437.615280947046</v>
+        <v>298.2139977513766</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>85.68821697936153</v>
+        <v>85.68821697936141</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8546,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>234.4116509503166</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -8941,7 +8941,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627471</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814685</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>360.5026862907244</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627462</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298192</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>96.03744927814574</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298008</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9728,19 +9728,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
-        <v>15.83804904622723</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -10190,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>29.47535963978197</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445216</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10442,13 +10442,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>124.3400780863226</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445216</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10673,22 +10673,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>134.4977453535101</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,16 +10901,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q39" t="n">
-        <v>52.49733361305221</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928316</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599058</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11378,28 +11378,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>73.53204524669997</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,19 +23418,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>146.4512427238725</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23466,7 +23466,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>2.984279490192421e-12</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,13 +23664,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271366</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>90.4740866492011</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,10 +23901,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>9.458763401644887</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23940,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24144,10 +24144,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>3.847734843216728</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>52.39982339880441</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>82.39383318338528</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24657,10 +24657,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>194.5731143188399</v>
+        <v>82.39383318338528</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>23.93099889297591</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>60.30854502681369</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>78.255050573413</v>
+        <v>52.12854204667649</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,10 +25128,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>51.71984429840981</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25362,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>79.43092547709092</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>44.27839330891801</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>14.45548819888904</v>
       </c>
     </row>
     <row r="41">
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>75.25074176866457</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>48.5852603476643</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -25851,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26031,16 +26031,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>124.766821618876</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26076,7 +26076,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>64.30500338171942</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>751919.5123764882</v>
+        <v>751919.5123764881</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>751919.5123764881</v>
+        <v>751919.512376488</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>751919.512376488</v>
+        <v>751919.5123764881</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>751919.5123764881</v>
+        <v>751919.512376488</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>751919.5123764881</v>
+        <v>751919.5123764878</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>751919.5123764881</v>
+        <v>751919.512376488</v>
       </c>
     </row>
     <row r="13">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="C2" t="n">
         <v>677359.460138034</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380333</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="E2" t="n">
-        <v>645197.9485672195</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="F2" t="n">
+        <v>645197.9485672191</v>
+      </c>
+      <c r="G2" t="n">
         <v>645197.9485672194</v>
       </c>
-      <c r="G2" t="n">
-        <v>645197.9485672199</v>
-      </c>
       <c r="H2" t="n">
-        <v>645197.9485672195</v>
+        <v>645197.9485672197</v>
       </c>
       <c r="I2" t="n">
-        <v>645197.9485672193</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="J2" t="n">
         <v>645197.9485672194</v>
       </c>
       <c r="K2" t="n">
-        <v>645197.9485672193</v>
+        <v>645197.9485672197</v>
       </c>
       <c r="L2" t="n">
-        <v>645197.9485672191</v>
+        <v>645197.9485672195</v>
       </c>
       <c r="M2" t="n">
-        <v>645197.9485672195</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="N2" t="n">
+        <v>645197.9485672192</v>
+      </c>
+      <c r="O2" t="n">
+        <v>645197.9485672198</v>
+      </c>
+      <c r="P2" t="n">
         <v>645197.9485672194</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645197.9485672194</v>
-      </c>
-      <c r="P2" t="n">
-        <v>645197.9485672197</v>
       </c>
     </row>
     <row r="3">
@@ -26365,40 +26365,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126293.3414468129</v>
+        <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>106137.1517703839</v>
+        <v>106137.1517703843</v>
       </c>
       <c r="D3" t="n">
-        <v>316711.9424252108</v>
+        <v>316711.9424252106</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.651701151989983e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5.363372581306411e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113884</v>
+        <v>72254.69487113913</v>
       </c>
       <c r="K3" t="n">
-        <v>24677.24609313406</v>
+        <v>24677.24609313413</v>
       </c>
       <c r="L3" t="n">
-        <v>76496.15793817145</v>
+        <v>76496.15793817144</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>300141.6569151476</v>
       </c>
       <c r="C4" t="n">
-        <v>269877.2512870323</v>
+        <v>269877.2512870322</v>
       </c>
       <c r="D4" t="n">
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
+        <v>29303.54555230228</v>
+      </c>
+      <c r="F4" t="n">
+        <v>29303.54555230218</v>
+      </c>
+      <c r="G4" t="n">
         <v>29303.54555230233</v>
       </c>
-      <c r="F4" t="n">
-        <v>29303.54555230234</v>
-      </c>
-      <c r="G4" t="n">
-        <v>29303.54555230232</v>
-      </c>
       <c r="H4" t="n">
-        <v>29303.54555230223</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.5455523023</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230225</v>
       </c>
       <c r="K4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230231</v>
+        <v>29303.54555230226</v>
       </c>
       <c r="M4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
+        <v>29303.54555230232</v>
+      </c>
+      <c r="O4" t="n">
+        <v>29303.54555230228</v>
+      </c>
+      <c r="P4" t="n">
         <v>29303.54555230233</v>
-      </c>
-      <c r="O4" t="n">
-        <v>29303.54555230234</v>
-      </c>
-      <c r="P4" t="n">
-        <v>29303.54555230237</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>58810.42201485715</v>
+        <v>58810.42201485718</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26481,37 +26481,37 @@
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871667</v>
       </c>
-      <c r="G5" t="n">
+      <c r="K5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871667</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871667</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871667</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871665</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>199743.0822592929</v>
+        <v>199743.0822592927</v>
       </c>
       <c r="C6" t="n">
-        <v>242534.6350657606</v>
+        <v>242534.6350657603</v>
       </c>
       <c r="D6" t="n">
-        <v>103297.6623275868</v>
+        <v>103297.6623275872</v>
       </c>
       <c r="E6" t="n">
-        <v>-1252.959410695679</v>
+        <v>-2227.550670417263</v>
       </c>
       <c r="F6" t="n">
-        <v>523907.0770662004</v>
+        <v>522932.4858064787</v>
       </c>
       <c r="G6" t="n">
-        <v>523907.0770662007</v>
+        <v>522932.4858064789</v>
       </c>
       <c r="H6" t="n">
-        <v>523907.0770662006</v>
+        <v>522932.485806479</v>
       </c>
       <c r="I6" t="n">
-        <v>523907.0770662004</v>
+        <v>522932.4858064789</v>
       </c>
       <c r="J6" t="n">
-        <v>451652.3821950615</v>
+        <v>450677.7909353397</v>
       </c>
       <c r="K6" t="n">
-        <v>499229.8309730664</v>
+        <v>498255.239713345</v>
       </c>
       <c r="L6" t="n">
-        <v>447410.9191280288</v>
+        <v>446436.3278683075</v>
       </c>
       <c r="M6" t="n">
-        <v>389106.0618323633</v>
+        <v>388131.4705726416</v>
       </c>
       <c r="N6" t="n">
-        <v>523907.0770662006</v>
+        <v>522932.4858064786</v>
       </c>
       <c r="O6" t="n">
-        <v>523907.0770662004</v>
+        <v>522932.4858064792</v>
       </c>
       <c r="P6" t="n">
-        <v>523907.0770662007</v>
+        <v>522932.4858064788</v>
       </c>
     </row>
   </sheetData>
@@ -26718,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.704215726633014e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912529</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>117.5602045593891</v>
+        <v>117.5602045593894</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26752,13 +26752,13 @@
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541004</v>
@@ -26773,13 +26773,13 @@
         <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
     </row>
     <row r="4">
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>372.0396308464222</v>
+        <v>372.0396308464225</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26801,25 +26801,25 @@
         <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
+        <v>1215.213643253573</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1215.213643253573</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1215.213643253573</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1215.213643253573</v>
+      </c>
+      <c r="J4" t="n">
         <v>1215.213643253574</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1215.213643253574</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1215.213643253574</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1215.213643253574</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="M4" t="n">
         <v>1215.213643253573</v>
@@ -26928,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.704215726633014e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912529</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>82.53894384026381</v>
+        <v>82.53894384026407</v>
       </c>
       <c r="D3" t="n">
-        <v>260.1834596576975</v>
+        <v>260.1834596576973</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-8.514998500263958e-15</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27011,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>95.88311714406677</v>
+        <v>95.88311714406706</v>
       </c>
       <c r="D4" t="n">
-        <v>302.2476419081334</v>
+        <v>302.2476419081331</v>
       </c>
       <c r="E4" t="n">
         <v>540.9263704990177</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023551</v>
+        <v>276.1565137023556</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406632</v>
+        <v>95.8831171440666</v>
       </c>
       <c r="L4" t="n">
         <v>302.2476419081336</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27165,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.704215726633014e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27257,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406677</v>
+        <v>95.88311714406706</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081334</v>
+        <v>302.2476419081331</v>
       </c>
       <c r="M4" t="n">
         <v>540.9263704990177</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>178.7993369999962</v>
+        <v>376.0289757810327</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>73.08445501505759</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>93.57458697611361</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>110.0814249536982</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27463,22 +27463,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
         <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>2.4678811220261</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27517,7 +27517,7 @@
         <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>8.82134946376965</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27545,25 +27545,25 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>139.23059496405</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9278262653587</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>161.6656840978772</v>
       </c>
       <c r="I4" t="n">
-        <v>82.24660231436351</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.69421081705838</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>111.6833360496396</v>
       </c>
       <c r="F5" t="n">
-        <v>199.3654560307044</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>42.79050283128817</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>334.6347480657416</v>
@@ -27675,16 +27675,16 @@
         <v>251.3078446008425</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>14.19830780963139</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.0906518175546</v>
       </c>
       <c r="H6" t="n">
         <v>109.7932973455552</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>80.69052336281878</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.2846016564487</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>166.9863082141301</v>
       </c>
       <c r="T6" t="n">
         <v>199.1455039024624</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9247462029711</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>184.1393025353008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27788,16 +27788,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.7789855469582</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>160.342354801553</v>
       </c>
       <c r="I7" t="n">
-        <v>149.0752428504967</v>
+        <v>149.0752428504966</v>
       </c>
       <c r="J7" t="n">
-        <v>78.37121764358476</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>37.96206432014233</v>
+        <v>68.41045236322658</v>
       </c>
       <c r="R7" t="n">
         <v>167.761378725518</v>
@@ -27833,7 +27833,7 @@
         <v>286.3074660576818</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>215.7018151474582</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>28.74372003767334</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27915,7 +27915,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>225.188523070633</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>26.42655497161951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>141.7069916148866</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -30732,7 +30732,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.140788987815579</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H2" t="n">
-        <v>1.441855221466299</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760113</v>
+        <v>5.42776745276012</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461251</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
-        <v>17.90888720884597</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L2" t="n">
-        <v>22.217558194707</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M2" t="n">
-        <v>24.7213143567723</v>
+        <v>24.72131435677233</v>
       </c>
       <c r="N2" t="n">
-        <v>25.12133106840331</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081215</v>
+        <v>23.72136057081218</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411504</v>
+        <v>20.24563243411507</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.20362680796961</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R2" t="n">
-        <v>8.84383625587037</v>
+        <v>8.84383625587038</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847509</v>
+        <v>3.208229059847513</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626972</v>
+        <v>0.616303794162698</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0753287494713261</v>
+        <v>0.0753287494713262</v>
       </c>
       <c r="H3" t="n">
-        <v>0.727517133052018</v>
+        <v>0.7275171330520189</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727676</v>
+        <v>2.593555628727679</v>
       </c>
       <c r="J3" t="n">
-        <v>7.116914878779982</v>
+        <v>7.116914878779991</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335883</v>
+        <v>12.16394109335885</v>
       </c>
       <c r="L3" t="n">
-        <v>16.35591992358772</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M3" t="n">
-        <v>19.08658709192328</v>
+        <v>19.08658709192331</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833406</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O3" t="n">
-        <v>17.92262575689047</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P3" t="n">
-        <v>14.38448725650261</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164365</v>
+        <v>9.615648792164377</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263565</v>
+        <v>4.676990252263571</v>
       </c>
       <c r="S3" t="n">
-        <v>1.399198482504675</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497748</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008299</v>
+        <v>0.004955838781008305</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006199</v>
+        <v>0.06315309310006208</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623698</v>
+        <v>0.5614884095623704</v>
       </c>
       <c r="I4" t="n">
-        <v>1.89918574522732</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174383</v>
+        <v>4.464923682174389</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170838</v>
+        <v>7.337241180170847</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894673</v>
+        <v>9.389142586894685</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948808</v>
+        <v>9.89953440294882</v>
       </c>
       <c r="N4" t="n">
-        <v>9.66414560139404</v>
+        <v>9.664145601394052</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179675</v>
+        <v>8.926402650179687</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938405</v>
+        <v>7.638079550938414</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.28821036858792</v>
+        <v>5.288210368587926</v>
       </c>
       <c r="R4" t="n">
-        <v>2.83959271339006</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S4" t="n">
-        <v>1.100586177025626</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457194</v>
+        <v>0.2698359432457197</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003444714169094295</v>
+        <v>0.003444714169094299</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4726038374246795</v>
+        <v>0.4726038374246807</v>
       </c>
       <c r="H5" t="n">
-        <v>4.8400540500255</v>
+        <v>4.840054050025512</v>
       </c>
       <c r="I5" t="n">
-        <v>18.22005944231497</v>
+        <v>18.22005944231502</v>
       </c>
       <c r="J5" t="n">
-        <v>40.11165994662293</v>
+        <v>40.11165994662303</v>
       </c>
       <c r="K5" t="n">
-        <v>60.11698038480962</v>
+        <v>60.11698038480977</v>
       </c>
       <c r="L5" t="n">
-        <v>74.58043007439517</v>
+        <v>74.58043007439535</v>
       </c>
       <c r="M5" t="n">
-        <v>82.98509856819631</v>
+        <v>82.98509856819652</v>
       </c>
       <c r="N5" t="n">
-        <v>84.32788422127919</v>
+        <v>84.3278842212794</v>
       </c>
       <c r="O5" t="n">
-        <v>79.62842981288752</v>
+        <v>79.62842981288773</v>
       </c>
       <c r="P5" t="n">
-        <v>67.96102257646574</v>
+        <v>67.96102257646591</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.03589764869439</v>
+        <v>51.03589764869452</v>
       </c>
       <c r="R5" t="n">
-        <v>29.68720080262805</v>
+        <v>29.68720080262812</v>
       </c>
       <c r="S5" t="n">
-        <v>10.76945994531489</v>
+        <v>10.76945994531492</v>
       </c>
       <c r="T5" t="n">
-        <v>2.068823298326536</v>
+        <v>2.068823298326541</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03780830699397435</v>
+        <v>0.03780830699397444</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2528653456560445</v>
+        <v>0.2528653456560451</v>
       </c>
       <c r="H6" t="n">
-        <v>2.442146890941272</v>
+        <v>2.442146890941279</v>
       </c>
       <c r="I6" t="n">
-        <v>8.706109488596271</v>
+        <v>8.706109488596292</v>
       </c>
       <c r="J6" t="n">
-        <v>23.89022987182831</v>
+        <v>23.89022987182837</v>
       </c>
       <c r="K6" t="n">
-        <v>40.83220803078329</v>
+        <v>40.8322080307834</v>
       </c>
       <c r="L6" t="n">
-        <v>54.90394270483546</v>
+        <v>54.90394270483559</v>
       </c>
       <c r="M6" t="n">
-        <v>64.07031148486705</v>
+        <v>64.07031148486722</v>
       </c>
       <c r="N6" t="n">
-        <v>65.76606198270957</v>
+        <v>65.76606198270974</v>
       </c>
       <c r="O6" t="n">
-        <v>60.16309827106775</v>
+        <v>60.16309827106789</v>
       </c>
       <c r="P6" t="n">
-        <v>48.28619043496871</v>
+        <v>48.28619043496884</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.27803956128736</v>
+        <v>32.27803956128745</v>
       </c>
       <c r="R6" t="n">
-        <v>15.69983260134635</v>
+        <v>15.69983260134639</v>
       </c>
       <c r="S6" t="n">
-        <v>4.696862889707665</v>
+        <v>4.696862889707678</v>
       </c>
       <c r="T6" t="n">
-        <v>1.019224792359232</v>
+        <v>1.019224792359234</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01663587800368714</v>
+        <v>0.01663587800368719</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2119938115005377</v>
+        <v>0.2119938115005383</v>
       </c>
       <c r="H7" t="n">
-        <v>1.8848177058866</v>
+        <v>1.884817705886605</v>
       </c>
       <c r="I7" t="n">
-        <v>6.375232076761627</v>
+        <v>6.375232076761643</v>
       </c>
       <c r="J7" t="n">
-        <v>14.98796247308801</v>
+        <v>14.98796247308805</v>
       </c>
       <c r="K7" t="n">
-        <v>24.6298264634261</v>
+        <v>24.62982646342617</v>
       </c>
       <c r="L7" t="n">
-        <v>31.5176981207254</v>
+        <v>31.51769812072548</v>
       </c>
       <c r="M7" t="n">
-        <v>33.23099356094338</v>
+        <v>33.23099356094346</v>
       </c>
       <c r="N7" t="n">
-        <v>32.44083480898685</v>
+        <v>32.44083480898693</v>
       </c>
       <c r="O7" t="n">
-        <v>29.96436164736692</v>
+        <v>29.964361647367</v>
       </c>
       <c r="P7" t="n">
-        <v>25.63968789275593</v>
+        <v>25.639687892756</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.75159088846775</v>
+        <v>17.7515908884678</v>
       </c>
       <c r="R7" t="n">
-        <v>9.532012651651447</v>
+        <v>9.532012651651472</v>
       </c>
       <c r="S7" t="n">
-        <v>3.694473969513915</v>
+        <v>3.694473969513924</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9057917400477518</v>
+        <v>0.9057917400477541</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01156329880912025</v>
+        <v>0.01156329880912028</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104652</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,43 +32311,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337673</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104652</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,43 +32548,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337673</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
         <v>34.18755300444946</v>
@@ -32709,40 +32709,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565521</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
@@ -32794,19 +32794,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458551</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710957</v>
@@ -32815,13 +32815,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34207,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,10 +34359,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34371,37 +34371,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34444,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34477,7 +34477,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34716,10 +34716,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P2" t="n">
-        <v>110.8113448503281</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424808</v>
+        <v>5.212927593424828</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.370323552522125</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>138.7877391315785</v>
       </c>
       <c r="L3" t="n">
-        <v>66.7233158434348</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>276.1565137023554</v>
+        <v>158.2658797799248</v>
       </c>
       <c r="N3" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>269.1887005891755</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P3" t="n">
-        <v>198.8728484821095</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>79.71116244199196</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>36.97916784721081</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M4" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062263</v>
+        <v>53.79631798062265</v>
       </c>
       <c r="O4" t="n">
-        <v>33.51153056421935</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831893</v>
+        <v>4.916638815831902</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.16237059201041</v>
+        <v>28.16237059201051</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1725419109938</v>
+        <v>164.172541910994</v>
       </c>
       <c r="L5" t="n">
-        <v>256.4752296548584</v>
+        <v>256.4752296548585</v>
       </c>
       <c r="M5" t="n">
-        <v>302.1523988337561</v>
+        <v>302.1523988337563</v>
       </c>
       <c r="N5" t="n">
-        <v>292.2617450366724</v>
+        <v>292.2617450366727</v>
       </c>
       <c r="O5" t="n">
-        <v>230.3303996539461</v>
+        <v>230.3303996539464</v>
       </c>
       <c r="P5" t="n">
-        <v>158.5267349926788</v>
+        <v>158.526734992679</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.04519843414958</v>
+        <v>41.04519843414972</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>23.14363854557046</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>167.4560060690029</v>
+        <v>167.456006069003</v>
       </c>
       <c r="L6" t="n">
-        <v>287.1899082284204</v>
+        <v>287.1899082284206</v>
       </c>
       <c r="M6" t="n">
-        <v>209.494709105182</v>
+        <v>372.0396308464225</v>
       </c>
       <c r="N6" t="n">
-        <v>372.0396308464222</v>
+        <v>232.6383476507531</v>
       </c>
       <c r="O6" t="n">
-        <v>311.4291731033528</v>
+        <v>311.429173103353</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>102.3735532111149</v>
+        <v>102.373553211115</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.36033463754325</v>
+        <v>2.360334637543314</v>
       </c>
       <c r="L7" t="n">
-        <v>59.10772338104154</v>
+        <v>59.10772338104162</v>
       </c>
       <c r="M7" t="n">
-        <v>72.81487052278396</v>
+        <v>72.81487052278405</v>
       </c>
       <c r="N7" t="n">
-        <v>76.57300718821544</v>
+        <v>76.57300718821553</v>
       </c>
       <c r="O7" t="n">
-        <v>54.5494895614066</v>
+        <v>54.54948956140667</v>
       </c>
       <c r="P7" t="n">
-        <v>22.91824715764942</v>
+        <v>22.91824715764949</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>384.9870895382559</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35661,7 +35661,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951489</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
         <v>570.6060255109123</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330535</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>537.6668875336992</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504663</v>
@@ -35743,7 +35743,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349819</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>609.7603912467489</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.556183571462</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.154607095148</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>345.2951542341702</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.556183571462</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349582</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
-        <v>103.8510818313014</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36524,19 +36524,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504664</v>
@@ -37162,13 +37162,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>331.4334930178474</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005179</v>
@@ -37393,22 +37393,22 @@
         <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>444.9221224039765</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37548,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37639,10 +37639,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q39" t="n">
-        <v>140.5103663981263</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221109</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,13 +37861,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37876,7 +37876,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>383.9564222971663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
